--- a/dev.bitstationary/-c/-c.xlsx
+++ b/dev.bitstationary/-c/-c.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="testPHP28" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="workSoEver43" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="quickAndRough52" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="31">
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>testPHP28</t>
+    <t>workSoEver43</t>
   </si>
   <si>
     <t>:</t>
@@ -29,10 +29,82 @@
     <t>#</t>
   </si>
   <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>Seem</t>
+  </si>
+  <si>
+    <t>harbour</t>
+  </si>
+  <si>
+    <t>Telecast</t>
+  </si>
+  <si>
+    <t>culminate</t>
+  </si>
+  <si>
+    <t>Climax</t>
+  </si>
+  <si>
+    <t>consume</t>
+  </si>
+  <si>
+    <t>Mere</t>
+  </si>
+  <si>
+    <t>supposition</t>
+  </si>
+  <si>
+    <t>Typical</t>
+  </si>
+  <si>
     <t>quickAndRough52</t>
   </si>
   <si>
     <t>Approximate</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>fragrance</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>Fortune</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>cartoon</t>
+  </si>
+  <si>
+    <t>Fortnight</t>
+  </si>
+  <si>
+    <t>hack</t>
+  </si>
+  <si>
+    <t>Stretch</t>
   </si>
 </sst>
 </file>
@@ -251,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -292,7 +364,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -301,7 +373,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -315,17 +387,23 @@
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -334,7 +412,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -619,12 +697,16 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="17" t="s">
         <v>0</v>
       </c>
@@ -641,12 +723,16 @@
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="17" t="s">
         <v>0</v>
       </c>
@@ -663,12 +749,16 @@
       <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
@@ -690,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="17" t="s">
         <v>0</v>
       </c>
@@ -712,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="17" t="s">
         <v>0</v>
       </c>
@@ -734,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="17" t="s">
         <v>0</v>
       </c>
@@ -756,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="17" t="s">
         <v>0</v>
       </c>
@@ -778,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
@@ -795,12 +885,12 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -817,12 +907,12 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -839,12 +929,12 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -861,12 +951,12 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -883,12 +973,12 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -905,12 +995,12 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -927,12 +1017,12 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -949,12 +1039,12 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -971,12 +1061,12 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -993,12 +1083,12 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -1015,12 +1105,12 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -1037,12 +1127,12 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1059,12 +1149,12 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -1081,12 +1171,12 @@
       <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -1103,12 +1193,12 @@
       <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -1125,12 +1215,16 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
       </c>
@@ -1147,12 +1241,16 @@
       <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
       </c>
@@ -1166,22 +1264,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="B29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31">
         <v>26.0</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="32" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -1221,14 +1323,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>0</v>
@@ -1258,12 +1360,16 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1280,12 +1386,16 @@
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1302,12 +1412,16 @@
       <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="17" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="17" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="17" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="17" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
@@ -1434,12 +1548,12 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -1456,12 +1570,12 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -1478,12 +1592,12 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -1500,12 +1614,12 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -1522,12 +1636,12 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -1544,12 +1658,12 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1566,12 +1680,12 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -1588,12 +1702,12 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1610,12 +1724,12 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -1632,12 +1746,12 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -1654,12 +1768,12 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -1676,12 +1790,12 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1698,12 +1812,12 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -1720,12 +1834,12 @@
       <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -1742,12 +1856,12 @@
       <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -1764,12 +1878,16 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
       </c>
@@ -1786,12 +1904,16 @@
       <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
       </c>
@@ -1805,22 +1927,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="B29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31">
         <v>26.0</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="32" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>

--- a/dev.bitstationary/-c/-c.xlsx
+++ b/dev.bitstationary/-c/-c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="77">
   <si>
     <t>-</t>
   </si>
@@ -29,40 +29,160 @@
     <t>#</t>
   </si>
   <si>
-    <t>accommodate</t>
-  </si>
-  <si>
-    <t>Hypothesis</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
-    <t>Seem</t>
-  </si>
-  <si>
-    <t>harbour</t>
-  </si>
-  <si>
-    <t>Telecast</t>
-  </si>
-  <si>
-    <t>culminate</t>
-  </si>
-  <si>
-    <t>Climax</t>
-  </si>
-  <si>
-    <t>consume</t>
-  </si>
-  <si>
-    <t>Mere</t>
-  </si>
-  <si>
-    <t>supposition</t>
-  </si>
-  <si>
-    <t>Typical</t>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>helper</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>turbo</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>Grammar</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>Allocate</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>Compile</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>Heritage</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>simulate</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>Assign</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>Favourite</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>Motion</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>Prior</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>quickAndRough52</t>
@@ -87,6 +207,24 @@
   </si>
   <si>
     <t>Fortune</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>Accent</t>
+  </si>
+  <si>
+    <t>illustrate</t>
+  </si>
+  <si>
+    <t>delusion</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>Fact</t>
   </si>
   <si>
     <t>opinion</t>
@@ -111,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -146,7 +284,7 @@
     </font>
     <font>
       <i/>
-      <sz val="7.0"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Overpass Mono"/>
     </font>
@@ -157,6 +295,12 @@
     </font>
     <font>
       <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Overpass Mono"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7.0"/>
       <color theme="1"/>
       <name val="Overpass Mono"/>
     </font>
@@ -323,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -385,43 +529,49 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,12 +925,16 @@
       <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>0</v>
       </c>
@@ -797,12 +951,16 @@
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="17" t="s">
         <v>0</v>
       </c>
@@ -819,12 +977,16 @@
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="17" t="s">
         <v>0</v>
       </c>
@@ -841,12 +1003,16 @@
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="17" t="s">
         <v>0</v>
       </c>
@@ -863,12 +1029,16 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
@@ -885,12 +1055,16 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="23"/>
+      <c r="F12" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -907,12 +1081,16 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -929,12 +1107,16 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -951,12 +1133,16 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -973,12 +1159,16 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -995,12 +1185,16 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1017,12 +1211,16 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -1039,12 +1237,16 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1061,12 +1263,16 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -1083,12 +1289,16 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -1105,12 +1315,16 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -1127,12 +1341,16 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1149,12 +1367,16 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="23"/>
+      <c r="F24" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -1171,12 +1393,16 @@
       <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -1193,12 +1419,16 @@
       <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -1215,15 +1445,15 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>11</v>
+      <c r="C27" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
@@ -1241,15 +1471,15 @@
       <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>13</v>
+      <c r="C28" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
@@ -1264,26 +1494,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31">
+      <c r="B29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27">
         <v>26.0</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="28" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -1323,14 +1553,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>0</v>
@@ -1361,14 +1591,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
+      <c r="F4" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>0</v>
@@ -1387,14 +1617,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
-        <v>22</v>
+      <c r="F5" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>0</v>
@@ -1413,14 +1643,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
-        <v>24</v>
+      <c r="F6" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>0</v>
@@ -1438,12 +1668,16 @@
       <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>0</v>
       </c>
@@ -1460,12 +1694,14 @@
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="17" t="s">
         <v>0</v>
       </c>
@@ -1482,12 +1718,12 @@
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="17" t="s">
         <v>0</v>
       </c>
@@ -1504,12 +1740,12 @@
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="17" t="s">
         <v>0</v>
       </c>
@@ -1526,12 +1762,12 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
@@ -1548,12 +1784,12 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="23"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -1570,12 +1806,12 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -1592,12 +1828,12 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -1614,12 +1850,12 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -1636,12 +1872,12 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -1658,12 +1894,12 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1680,12 +1916,12 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -1702,12 +1938,12 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1724,12 +1960,12 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -1746,12 +1982,12 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -1768,12 +2004,12 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -1790,12 +2026,12 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1812,12 +2048,12 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="23"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -1834,12 +2070,14 @@
       <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -1856,12 +2094,16 @@
       <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -1878,15 +2120,15 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>25</v>
+      <c r="C27" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="16" t="s">
-        <v>26</v>
+      <c r="F27" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
@@ -1904,15 +2146,15 @@
       <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>27</v>
+      <c r="C28" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="16" t="s">
-        <v>28</v>
+      <c r="F28" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
@@ -1927,26 +2169,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31">
+      <c r="B29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27">
         <v>26.0</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="28" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>

--- a/dev.bitstationary/-c/-c.xlsx
+++ b/dev.bitstationary/-c/-c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="87">
   <si>
     <t>-</t>
   </si>
@@ -191,7 +191,7 @@
     <t>Approximate</t>
   </si>
   <si>
-    <t>stress</t>
+    <t>trace</t>
   </si>
   <si>
     <t>Ring</t>
@@ -206,7 +206,7 @@
     <t>sentiment</t>
   </si>
   <si>
-    <t>Fortune</t>
+    <t>Fort</t>
   </si>
   <si>
     <t>philosophy</t>
@@ -218,7 +218,37 @@
     <t>illustrate</t>
   </si>
   <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>reception</t>
+  </si>
+  <si>
+    <t>Invite</t>
+  </si>
+  <si>
+    <t>concert</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>ornament</t>
+  </si>
+  <si>
+    <t>Hang</t>
+  </si>
+  <si>
     <t>delusion</t>
+  </si>
+  <si>
+    <t>Statue</t>
   </si>
   <si>
     <t>sticker</t>
@@ -249,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -284,7 +314,7 @@
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="7.0"/>
       <color theme="1"/>
       <name val="Overpass Mono"/>
     </font>
@@ -295,12 +325,6 @@
     </font>
     <font>
       <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Overpass Mono"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7.0"/>
       <color theme="1"/>
       <name val="Overpass Mono"/>
     </font>
@@ -467,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -555,23 +579,14 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -1623,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="17" t="s">
@@ -1649,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -1701,7 +1716,9 @@
         <v>2</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="30"/>
+      <c r="F8" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="G8" s="17" t="s">
         <v>0</v>
       </c>
@@ -1718,12 +1735,16 @@
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="30"/>
+      <c r="F9" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="G9" s="17" t="s">
         <v>0</v>
       </c>
@@ -1740,12 +1761,16 @@
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="G10" s="17" t="s">
         <v>0</v>
       </c>
@@ -1762,12 +1787,12 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
@@ -1784,12 +1809,12 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="33"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -1806,12 +1831,12 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="33"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -1828,12 +1853,12 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -1850,12 +1875,12 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -1872,12 +1897,12 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -1894,12 +1919,12 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1916,12 +1941,12 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -1938,12 +1963,12 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1960,12 +1985,12 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -1982,12 +2007,12 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -2004,12 +2029,12 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="33"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -2026,12 +2051,16 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="33"/>
+      <c r="F23" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -2048,12 +2077,16 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="33"/>
+      <c r="F24" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -2071,13 +2104,15 @@
         <v>0</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -2095,14 +2130,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>0</v>
@@ -2121,14 +2156,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="29" t="s">
-        <v>72</v>
+      <c r="F27" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
@@ -2147,14 +2182,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="29" t="s">
-        <v>74</v>
+      <c r="F28" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
@@ -2173,14 +2208,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="24"/>
-      <c r="F29" s="34" t="s">
-        <v>76</v>
+      <c r="F29" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>0</v>

--- a/dev.bitstationary/-c/-c.xlsx
+++ b/dev.bitstationary/-c/-c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="111">
   <si>
     <t>-</t>
   </si>
@@ -191,7 +191,7 @@
     <t>Approximate</t>
   </si>
   <si>
-    <t>trace</t>
+    <t>race</t>
   </si>
   <si>
     <t>Ring</t>
@@ -200,13 +200,13 @@
     <t>fragrance</t>
   </si>
   <si>
-    <t>Charcoal</t>
+    <t>Crack</t>
   </si>
   <si>
     <t>sentiment</t>
   </si>
   <si>
-    <t>Fort</t>
+    <t>Rest</t>
   </si>
   <si>
     <t>philosophy</t>
@@ -233,6 +233,78 @@
     <t>Invite</t>
   </si>
   <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>melody</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>habit</t>
+  </si>
+  <si>
+    <t>Fill</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>Bind</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>Jug</t>
+  </si>
+  <si>
+    <t>tender</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>gentle</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>Way</t>
+  </si>
+  <si>
     <t>concert</t>
   </si>
   <si>
@@ -260,19 +332,19 @@
     <t>opinion</t>
   </si>
   <si>
-    <t>Mine</t>
+    <t>My</t>
   </si>
   <si>
     <t>cartoon</t>
   </si>
   <si>
-    <t>Fortnight</t>
-  </si>
-  <si>
-    <t>hack</t>
-  </si>
-  <si>
-    <t>Stretch</t>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>Stage</t>
   </si>
 </sst>
 </file>
@@ -491,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -578,15 +650,6 @@
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1787,12 +1850,16 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="29"/>
+      <c r="F11" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
@@ -1809,12 +1876,16 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="31"/>
+      <c r="F12" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -1831,12 +1902,16 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="31"/>
+      <c r="F13" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -1853,12 +1928,16 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="31"/>
+      <c r="F14" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -1875,12 +1954,16 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -1897,12 +1980,16 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="31"/>
+      <c r="F16" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -1919,12 +2006,16 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="31"/>
+      <c r="F17" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1941,12 +2032,16 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -1963,12 +2058,16 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1985,12 +2084,16 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="31"/>
+      <c r="F20" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -2007,12 +2110,16 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="31"/>
+      <c r="F21" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -2029,12 +2136,16 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="31"/>
+      <c r="F22" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -2052,14 +2163,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="16" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>0</v>
@@ -2078,14 +2189,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>0</v>
@@ -2104,14 +2215,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>0</v>
@@ -2130,14 +2241,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>0</v>
@@ -2156,14 +2267,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
@@ -2182,14 +2293,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
@@ -2208,14 +2319,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="25" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>0</v>
